--- a/continew-webapi/src/main/resources/static/stock_out_zh.xlsx
+++ b/continew-webapi/src/main/resources/static/stock_out_zh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java\continew-admin\continew-webapi\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ADB0B3-BFBC-4F24-9FA4-72707E7991D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562F4E2-569A-43D7-854A-67C12492FC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="3570" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{goodsList.status}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{goodsList.planNum}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +125,10 @@
   </si>
   <si>
     <t>{goodsList.goodsUnit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{goodsList.statusString}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -504,28 +504,28 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -572,22 +572,22 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
